--- a/Daily-Scrum.xlsx
+++ b/Daily-Scrum.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17EE888-F5F6-40A6-BA26-4DDAD092CD0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2C5AAA-952F-4803-B3D7-1170885360B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
   <si>
     <t>Frage</t>
   </si>
@@ -747,7 +747,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,6 +804,9 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -811,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/Daily-Scrum.xlsx
+++ b/Daily-Scrum.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2C5AAA-952F-4803-B3D7-1170885360B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD53A82E-B0E1-40DB-B284-07F90F826915}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26.02.2019" sheetId="1" r:id="rId1"/>
     <sheet name="11.03.2019" sheetId="2" r:id="rId2"/>
     <sheet name="12.03.2019" sheetId="3" r:id="rId3"/>
     <sheet name="14.03.2019" sheetId="4" r:id="rId4"/>
+    <sheet name="25.03.2019" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
   <si>
     <t>Frage</t>
   </si>
@@ -77,6 +78,18 @@
   </si>
   <si>
     <t>2) US 2 VA, TN Login</t>
+  </si>
+  <si>
+    <t>1) User Stories vervollständigen</t>
+  </si>
+  <si>
+    <t>2) Datenbank vervollständigen</t>
+  </si>
+  <si>
+    <t>3) GUI Desiginen</t>
+  </si>
+  <si>
+    <t>4) Projekt erstellen und in GitLab einchecken</t>
   </si>
 </sst>
 </file>
@@ -746,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F0F884-5BE1-4296-976D-90B6B926D151}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,4 +863,118 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780C968F-EEA4-4C98-A23D-DA04D099C3D6}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>43549</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>